--- a/Test/Classeur1.xlsx
+++ b/Test/Classeur1.xlsx
@@ -21,6 +21,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>T02</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,12 +346,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test/Classeur1.xlsx
+++ b/Test/Classeur1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Integration\WIP\APS_SWAP02\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_APS_SWAP_02\APS_DEV_01_ALL\APS_SWAP02\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12550" windowHeight="4590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>T01</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -339,11 +347,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test/Classeur1.xlsx
+++ b/Test/Classeur1.xlsx
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>T01</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,18 +342,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test/Classeur1.xlsx
+++ b/Test/Classeur1.xlsx
@@ -24,7 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Branche Master</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,10 +346,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test/Classeur1.xlsx
+++ b/Test/Classeur1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_APS_SWAP_02\APS_DEV_01_ALL\APS_SWAP02\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_APS_SWAP02_Git\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,10 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <customWorkbookViews>
+    <customWorkbookView name="APS_DEV_01 - Affichage personnalisé" guid="{E0E90811-E8E4-41CC-896E-BD3A5834D2B9}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1096" activeSheetId="1"/>
+    <customWorkbookView name="Alexandre Baranger - Affichage personnalisé" guid="{ABA7904C-BDC2-42DE-B7FC-F95BB0ACB22A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1096" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Branche Master</t>
+  </si>
+  <si>
+    <t>Test1</t>
   </si>
 </sst>
 </file>
@@ -79,6 +86,44 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DC32A037-79E2-4FD8-AD43-7F94D8487E6A}" diskRevisions="1" revisionId="1" version="2">
+  <header guid="{F80BE77D-91B1-4173-A945-8F04FD4E651C}" dateTime="2015-03-05T23:15:59" maxSheetId="2" userName="Alexandre Baranger" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DC32A037-79E2-4FD8-AD43-7F94D8487E6A}" dateTime="2015-03-06T00:15:06" maxSheetId="2" userName="APS_DEV_01" r:id="rId2" minRId="1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Test1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{E0E90811-E8E4-41CC-896E-BD3A5834D2B9}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{DC32A037-79E2-4FD8-AD43-7F94D8487E6A}" name="APS_DEV_01" id="-2127931923" dateTime="2015-03-05T23:34:21"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -355,12 +400,25 @@
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{E0E90811-E8E4-41CC-896E-BD3A5834D2B9}">
+      <selection activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{ABA7904C-BDC2-42DE-B7FC-F95BB0ACB22A}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test/Classeur1.xlsx
+++ b/Test/Classeur1.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_APS_SWAP_02\APS_DEV_01_ALL\APS_SWAP02\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Integration\APS_SWAP02\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="4590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9165" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Alex - Affichage personnalisé" guid="{24A8138D-215C-45AD-B9A6-4FBBAB36F31D}" mergeInterval="0" personalView="1" xWindow="902" yWindow="155" windowWidth="707" windowHeight="655" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Branche Master</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -79,6 +85,43 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FDD0F222-BDDD-438B-B606-C33C6947F367}" diskRevisions="1" revisionId="1" version="2">
+  <header guid="{0585ED0A-F665-4B42-94A9-C6DA1DB195F7}" dateTime="2015-03-05T23:24:26" maxSheetId="2" userName="Alex" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FDD0F222-BDDD-438B-B606-C33C6947F367}" dateTime="2015-03-06T00:20:44" maxSheetId="2" userName="Alex" r:id="rId2" minRId="1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>test2</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{FDD0F222-BDDD-438B-B606-C33C6947F367}" name="Alex" id="-875206765" dateTime="2015-03-05T23:24:26"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -355,12 +398,21 @@
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{24A8138D-215C-45AD-B9A6-4FBBAB36F31D}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test/Classeur1.xlsx
+++ b/Test/Classeur1.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
-    <customWorkbookView name="Alex - Affichage personnalisé" guid="{24A8138D-215C-45AD-B9A6-4FBBAB36F31D}" mergeInterval="0" personalView="1" xWindow="902" yWindow="155" windowWidth="707" windowHeight="655" activeSheetId="1"/>
+    <customWorkbookView name="Alex - Affichage personnalisé" guid="{24A8138D-215C-45AD-B9A6-4FBBAB36F31D}" mergeInterval="0" changesSavedWin="1" personalView="1" xWindow="1058" yWindow="240" windowWidth="613" windowHeight="597" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,12 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Branche Master</t>
   </si>
   <si>
     <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -88,7 +91,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FDD0F222-BDDD-438B-B606-C33C6947F367}" diskRevisions="1" revisionId="1" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2BAEA42F-77FD-4995-ADF8-61AC669DAA5D}" diskRevisions="1" revisionId="2" version="4">
   <header guid="{0585ED0A-F665-4B42-94A9-C6DA1DB195F7}" dateTime="2015-03-05T23:24:26" maxSheetId="2" userName="Alex" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -99,6 +102,16 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{B313C19A-430F-475E-AEFF-89E7F1C0A4B7}" dateTime="2015-03-06T00:27:09" maxSheetId="2" userName="Alex" r:id="rId3">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2BAEA42F-77FD-4995-ADF8-61AC669DAA5D}" dateTime="2015-03-06T00:27:21" maxSheetId="2" userName="Alex" r:id="rId4" minRId="2">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -118,9 +131,28 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{24A8138D-215C-45AD-B9A6-4FBBAB36F31D}" action="delete"/>
+  <rcv guid="{24A8138D-215C-45AD-B9A6-4FBBAB36F31D}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="2" sId="1">
+    <nc r="D1" t="inlineStr">
+      <is>
+        <t>test3</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{FDD0F222-BDDD-438B-B606-C33C6947F367}" name="Alex" id="-875206765" dateTime="2015-03-05T23:24:26"/>
+  <userInfo guid="{2BAEA42F-77FD-4995-ADF8-61AC669DAA5D}" name="Alex" id="-875206765" dateTime="2015-03-05T23:24:26"/>
 </users>
 </file>
 
@@ -387,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,18 +430,21 @@
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{24A8138D-215C-45AD-B9A6-4FBBAB36F31D}">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/Test/Classeur1.xlsx
+++ b/Test/Classeur1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Integration\APS_SWAP02\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_APS_SWAP02_Git\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="APS_DEV_01 - Affichage personnalisé" guid="{A1844B75-E4D4-4733-B0E1-75C8AE59CA00}" mergeInterval="0" changesSavedWin="1" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1096" activeSheetId="1"/>
     <customWorkbookView name="Alex - Affichage personnalisé" guid="{24A8138D-215C-45AD-B9A6-4FBBAB36F31D}" mergeInterval="0" personalView="1" xWindow="902" yWindow="155" windowWidth="707" windowHeight="655" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
@@ -27,12 +28,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Branche Master</t>
   </si>
   <si>
     <t>test2</t>
+  </si>
+  <si>
+    <t>Test1</t>
   </si>
 </sst>
 </file>
@@ -88,7 +92,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FDD0F222-BDDD-438B-B606-C33C6947F367}" diskRevisions="1" revisionId="1" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{45039D3D-E2B2-4042-A2F6-EE1AF71FEA00}" diskRevisions="1" revisionId="2" version="3">
   <header guid="{0585ED0A-F665-4B42-94A9-C6DA1DB195F7}" dateTime="2015-03-05T23:24:26" maxSheetId="2" userName="Alex" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -99,6 +103,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{45039D3D-E2B2-4042-A2F6-EE1AF71FEA00}" dateTime="2015-03-06T00:26:37" maxSheetId="2" userName="APS_DEV_01" r:id="rId3" minRId="2">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -115,6 +124,19 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="2" sId="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Test1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{A1844B75-E4D4-4733-B0E1-75C8AE59CA00}" action="add"/>
 </revisions>
 </file>
 
@@ -390,7 +412,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,12 +424,19 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{A1844B75-E4D4-4733-B0E1-75C8AE59CA00}">
+      <selection activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{24A8138D-215C-45AD-B9A6-4FBBAB36F31D}">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test/Classeur1.xlsx
+++ b/Test/Classeur1.xlsx
@@ -151,8 +151,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{2BAEA42F-77FD-4995-ADF8-61AC669DAA5D}" name="Alex" id="-875206765" dateTime="2015-03-05T23:24:26"/>
+  <userInfo guid="{2BAEA42F-77FD-4995-ADF8-61AC669DAA5D}" name="APS_DEV_01" id="-2127921884" dateTime="2015-03-06T00:29:27"/>
 </users>
 </file>
 

--- a/Test/Classeur1.xlsx
+++ b/Test/Classeur1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Branche Master</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>test3</t>
+  </si>
+  <si>
+    <t>ytest4</t>
   </si>
 </sst>
 </file>
@@ -91,7 +94,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2BAEA42F-77FD-4995-ADF8-61AC669DAA5D}" diskRevisions="1" revisionId="2" version="4">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4D74CCC6-D11A-4202-92D7-51519E69E80E}" diskRevisions="1" revisionId="3" version="5">
   <header guid="{0585ED0A-F665-4B42-94A9-C6DA1DB195F7}" dateTime="2015-03-05T23:24:26" maxSheetId="2" userName="Alex" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -112,6 +115,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{4D74CCC6-D11A-4202-92D7-51519E69E80E}" dateTime="2015-03-06T00:32:48" maxSheetId="2" userName="Alex" r:id="rId5" minRId="3">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -150,10 +158,23 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3" sId="1">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>ytest4</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
   <userInfo guid="{2BAEA42F-77FD-4995-ADF8-61AC669DAA5D}" name="Alex" id="-875206765" dateTime="2015-03-05T23:24:26"/>
   <userInfo guid="{2BAEA42F-77FD-4995-ADF8-61AC669DAA5D}" name="APS_DEV_01" id="-2127921884" dateTime="2015-03-06T00:29:27"/>
+  <userInfo guid="{4D74CCC6-D11A-4202-92D7-51519E69E80E}" name="Alex" id="-875213666" dateTime="2015-03-06T00:32:30"/>
 </users>
 </file>
 
@@ -420,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +452,7 @@
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,6 +461,9 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Test/Classeur1.xlsx
+++ b/Test/Classeur1.xlsx
@@ -171,10 +171,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{2BAEA42F-77FD-4995-ADF8-61AC669DAA5D}" name="Alex" id="-875206765" dateTime="2015-03-05T23:24:26"/>
   <userInfo guid="{2BAEA42F-77FD-4995-ADF8-61AC669DAA5D}" name="APS_DEV_01" id="-2127921884" dateTime="2015-03-06T00:29:27"/>
-  <userInfo guid="{4D74CCC6-D11A-4202-92D7-51519E69E80E}" name="Alex" id="-875213666" dateTime="2015-03-06T00:32:30"/>
 </users>
 </file>
 

--- a/Test/Classeur1.xlsx
+++ b/Test/Classeur1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Integration\APS_SWAP02\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_APS_SWAP02_Git\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="APS_DEV_01 - Affichage personnalisé" guid="{BD006018-4F37-4794-9DB3-14B5A8A59BBE}" mergeInterval="0" personalView="1" xWindow="208" yWindow="208" windowWidth="1440" windowHeight="789" activeSheetId="1"/>
     <customWorkbookView name="Alex - Affichage personnalisé" guid="{24A8138D-215C-45AD-B9A6-4FBBAB36F31D}" mergeInterval="0" changesSavedWin="1" personalView="1" xWindow="1058" yWindow="240" windowWidth="613" windowHeight="597" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Branche Master</t>
   </si>
@@ -36,6 +37,9 @@
   </si>
   <si>
     <t>test3</t>
+  </si>
+  <si>
+    <t>test5</t>
   </si>
 </sst>
 </file>
@@ -91,7 +95,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2BAEA42F-77FD-4995-ADF8-61AC669DAA5D}" diskRevisions="1" revisionId="2" version="4">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{151C3763-E94A-4D5B-9DB7-FD2276BE72C1}" diskRevisions="1" revisionId="3" version="5">
   <header guid="{0585ED0A-F665-4B42-94A9-C6DA1DB195F7}" dateTime="2015-03-05T23:24:26" maxSheetId="2" userName="Alex" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -112,6 +116,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{151C3763-E94A-4D5B-9DB7-FD2276BE72C1}" dateTime="2015-03-06T00:35:00" maxSheetId="2" userName="APS_DEV_01" r:id="rId5" minRId="3">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -150,10 +159,22 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3" sId="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>test5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{BD006018-4F37-4794-9DB3-14B5A8A59BBE}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
   <userInfo guid="{2BAEA42F-77FD-4995-ADF8-61AC669DAA5D}" name="Alex" id="-875206765" dateTime="2015-03-05T23:24:26"/>
-  <userInfo guid="{2BAEA42F-77FD-4995-ADF8-61AC669DAA5D}" name="APS_DEV_01" id="-2127921884" dateTime="2015-03-06T00:29:27"/>
 </users>
 </file>
 
@@ -423,7 +444,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,6 +456,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -444,6 +468,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BD006018-4F37-4794-9DB3-14B5A8A59BBE}">
+      <selection activeCell="B1" sqref="B1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{24A8138D-215C-45AD-B9A6-4FBBAB36F31D}">
       <selection activeCell="B1" sqref="B1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
